--- a/docs/TodoList.xlsx
+++ b/docs/TodoList.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C729B41E-721C-46D2-B562-161E7C743254}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00275746-F0AA-4189-B092-35734C6D64B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2460" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="3" r:id="rId1"/>
@@ -1691,7 +1691,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2243,7 +2243,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
         <v>69</v>

--- a/docs/TodoList.xlsx
+++ b/docs/TodoList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00275746-F0AA-4189-B092-35734C6D64B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9BC2D9-A6EC-4E1D-A9E5-6A26236B782F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2460" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="72">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,14 @@
   </si>
   <si>
     <t>2019.06.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1691,7 +1699,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1862,7 +1870,12 @@
       <c r="D8" s="3">
         <v>0.5</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -1878,7 +1891,12 @@
       <c r="D9" s="3">
         <v>1.5</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -1894,7 +1912,12 @@
       <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
